--- a/JAVA18 TRALUONG DABABASE DESIGN.xlsx
+++ b/JAVA18 TRALUONG DABABASE DESIGN.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minht\OneDrive - The University of Technology\18+\JAVA18\3.DATAVBASE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF42E9F-8C43-4B44-A07B-6D5531973977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805E46C9-A148-4685-8188-0E6DD3EF7062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B1. Mô hình quan niệm" sheetId="1" r:id="rId1"/>
     <sheet name="B2. Mô hình logic" sheetId="2" r:id="rId2"/>
+    <sheet name="B3. Mô hình quan hệ" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -98,8 +99,45 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={972B4586-C052-4BBC-8300-98141677E89C}</author>
+    <author>tc={9E992780-0180-4208-AFC8-8233FC0463CB}</author>
+    <author>tc={40F11544-A61B-437E-BDEC-C6D3DD08004B}</author>
+  </authors>
+  <commentList>
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{972B4586-C052-4BBC-8300-98141677E89C}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Đã đặt hàng, đang đóng gói, đang giao hàng, giao thành công, giao thất bại
+</t>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="1" shapeId="0" xr:uid="{9E992780-0180-4208-AFC8-8233FC0463CB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Số lượng còn lại</t>
+      </text>
+    </comment>
+    <comment ref="C12" authorId="2" shapeId="0" xr:uid="{40F11544-A61B-437E-BDEC-C6D3DD08004B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Chức vụ N-N</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="152">
   <si>
     <t>Xác định các đối tượng cần lưu trữ, xác định các thuộc tính, thông tin của đối tượng.</t>
   </si>
@@ -450,13 +488,118 @@
   </si>
   <si>
     <t>T12</t>
+  </si>
+  <si>
+    <t>1. Xác định các bảng</t>
+  </si>
+  <si>
+    <t>2. Xác định lại thuộc tính của từng bảng</t>
+  </si>
+  <si>
+    <t>3. Xác định khoá chính</t>
+  </si>
+  <si>
+    <t>4. Xử lí các mỗi quan hệ --&gt; khoá ngoại, bảng mới.</t>
+  </si>
+  <si>
+    <t>Khoá ngoại: 1-1, 1-N</t>
+  </si>
+  <si>
+    <t>Bảng mới: N-N</t>
+  </si>
+  <si>
+    <t>T01</t>
+  </si>
+  <si>
+    <t>T02</t>
+  </si>
+  <si>
+    <t>T03</t>
+  </si>
+  <si>
+    <t>T04</t>
+  </si>
+  <si>
+    <t>T05</t>
+  </si>
+  <si>
+    <t>T06</t>
+  </si>
+  <si>
+    <t>T07</t>
+  </si>
+  <si>
+    <t>T08</t>
+  </si>
+  <si>
+    <t>T09</t>
+  </si>
+  <si>
+    <t>Khoá chính</t>
+  </si>
+  <si>
+    <t>Khoá ngoại</t>
+  </si>
+  <si>
+    <t>Khoá chính - Khoá ngoại</t>
+  </si>
+  <si>
+    <t>ITEM_DETAIL</t>
+  </si>
+  <si>
+    <t>ITEM_ID</t>
+  </si>
+  <si>
+    <t>SIZE_ID</t>
+  </si>
+  <si>
+    <t>COLOR</t>
+  </si>
+  <si>
+    <t>ITEM_GROUP_ID</t>
+  </si>
+  <si>
+    <t>PROVIDER_ID</t>
+  </si>
+  <si>
+    <t>EMPLOYEE_DETAIL</t>
+  </si>
+  <si>
+    <t>EMPLOYEE_ID</t>
+  </si>
+  <si>
+    <t>TITLE_ID</t>
+  </si>
+  <si>
+    <t>SALARY_BONUS</t>
+  </si>
+  <si>
+    <t>CUSTOMER_ID</t>
+  </si>
+  <si>
+    <t>ORDER_DETAIL</t>
+  </si>
+  <si>
+    <t>ORDER_ID</t>
+  </si>
+  <si>
+    <t>PAYMENT_METHOD_ID</t>
+  </si>
+  <si>
+    <t>DEPARTMENT_ID</t>
+  </si>
+  <si>
+    <t>ORDER_DELIVERY_STATUS_DETAIL</t>
+  </si>
+  <si>
+    <t>STATUS_ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -492,6 +635,64 @@
     </font>
     <font>
       <u/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="28"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="28"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="28"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -564,7 +765,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -611,28 +812,70 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -648,6 +891,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1995715</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>356808</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>489857</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>169419</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40241C8E-F9D2-DE8B-1503-2F7D3EFCF319}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25871715" y="18983475"/>
+          <a:ext cx="18687142" cy="17507944"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -946,6 +1244,21 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="J3" dT="2023-06-17T02:50:02.60" personId="{AC3D9B95-6E80-4034-959A-48963627941D}" id="{972B4586-C052-4BBC-8300-98141677E89C}">
+    <text xml:space="preserve">Đã đặt hàng, đang đóng gói, đang giao hàng, giao thành công, giao thất bại
+</text>
+  </threadedComment>
+  <threadedComment ref="B6" dT="2023-06-14T13:41:43.69" personId="{AC3D9B95-6E80-4034-959A-48963627941D}" id="{9E992780-0180-4208-AFC8-8233FC0463CB}">
+    <text>Số lượng còn lại</text>
+  </threadedComment>
+  <threadedComment ref="C12" dT="2023-06-17T03:55:07.71" personId="{AC3D9B95-6E80-4034-959A-48963627941D}" id="{40F11544-A61B-437E-BDEC-C6D3DD08004B}">
+    <text>Chức vụ N-N</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:N42"/>
@@ -972,26 +1285,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" x14ac:dyDescent="0.7">
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
     </row>
     <row r="3" spans="3:10" x14ac:dyDescent="0.7">
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
     </row>
     <row r="4" spans="3:10" x14ac:dyDescent="0.7">
       <c r="D4" s="8" t="s">
@@ -1548,10 +1861,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE71955-5691-4EBF-A75C-7C1C10004B69}">
-  <dimension ref="A2:O46"/>
+  <dimension ref="A2:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D14" zoomScale="44" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="18" zoomScaleNormal="18" workbookViewId="0">
+      <selection activeCell="BB39" sqref="BB39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="36.6" x14ac:dyDescent="0.7"/>
@@ -1593,14 +1906,6 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.7">
-      <c r="D4" s="22"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-    </row>
     <row r="20" spans="4:15" x14ac:dyDescent="0.7">
       <c r="I20" s="1" t="s">
         <v>104</v>
@@ -1695,40 +2000,40 @@
       </c>
     </row>
     <row r="23" spans="4:15" x14ac:dyDescent="0.7">
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="27" t="s">
+      <c r="F23" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="27" t="s">
+      <c r="G23" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="H23" s="27" t="s">
+      <c r="H23" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="I23" s="27" t="s">
+      <c r="I23" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="J23" s="27" t="s">
+      <c r="J23" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="K23" s="27" t="s">
+      <c r="K23" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="L23" s="27" t="s">
+      <c r="L23" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="M23" s="27" t="s">
+      <c r="M23" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="N23" s="27" t="s">
+      <c r="N23" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="O23" s="27" t="s">
+      <c r="O23" s="23" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1766,7 +2071,7 @@
       <c r="N24" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="O24" s="27" t="s">
+      <c r="O24" s="23" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2021,91 +2326,751 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.7">
       <c r="D37" s="10"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.7">
-      <c r="G38" s="24"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="24"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.7">
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
+      <c r="H38" s="21"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.7">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.7">
-      <c r="A41" s="20"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="21" t="s">
+      <c r="A41" s="19"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.7">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="21" t="s">
+      <c r="A42" s="19"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.7">
-      <c r="A43" s="20"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="21" t="s">
+      <c r="A43" s="19"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.7">
-      <c r="A44" s="20"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="21" t="s">
+      <c r="A44" s="19"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20" t="s">
+      <c r="E44" s="19"/>
+      <c r="F44" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="G44" s="20"/>
+      <c r="G44" s="19"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.7">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="21" t="s">
+      <c r="A45" s="19"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.7">
-      <c r="D46" s="21" t="s">
+      <c r="D46" s="20" t="s">
         <v>97</v>
       </c>
+    </row>
+    <row r="58" spans="7:7" x14ac:dyDescent="0.7">
+      <c r="G58" s="43"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B12E15-EC79-45AE-88E1-033FA77C01B4}">
+  <dimension ref="A1:P45"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" zoomScale="50" zoomScaleNormal="31" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="36.6" x14ac:dyDescent="0.7"/>
+  <cols>
+    <col min="1" max="2" width="53.33203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="44" style="1" customWidth="1"/>
+    <col min="5" max="5" width="47.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="55.109375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="44.88671875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="91.77734375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="91.77734375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="42.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="56.5546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="31.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="42.88671875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="33.21875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="48.77734375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="36.44140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="36.5546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="45.5546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="29.5546875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.7">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.7">
+      <c r="A2" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.7">
+      <c r="A3" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.7">
+      <c r="A4" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="H4" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" s="34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.7">
+      <c r="A5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="P5" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.7">
+      <c r="A6" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.7">
+      <c r="A7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G7" s="40"/>
+      <c r="H7" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.7">
+      <c r="A8" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.7">
+      <c r="A9" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.7">
+      <c r="A10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.7">
+      <c r="A11" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="37"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.7">
+      <c r="A12" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.7">
+      <c r="A13" s="33"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="37"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.7">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="15"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.7">
+      <c r="A15" s="11"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="35"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="11"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.7">
+      <c r="A16" s="11"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="11"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.7">
+      <c r="A17" s="11"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="11"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.7">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.7">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="21"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.7">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.7">
+      <c r="A21" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.7">
+      <c r="A22" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22" s="29"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.7">
+      <c r="A23" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.7">
+      <c r="A24" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="F24" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.7">
+      <c r="B25" s="20"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="F25" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.7">
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A41" s="19"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
